--- a/docs/user_stories_ps_team_1.xlsx
+++ b/docs/user_stories_ps_team_1.xlsx
@@ -1,44 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonpearson/Desktop/Summer 2025/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\25su_team1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D77B3B2A-409A-B84C-ABD2-E533069BB0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE919FA1-3C31-4FA1-AAB1-9CE568857526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="12" r:id="rId1"/>
     <sheet name="US-1" sheetId="9" r:id="rId2"/>
     <sheet name="US-2" sheetId="11" r:id="rId3"/>
+    <sheet name="US-4" sheetId="13" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="140">
   <si>
     <t>Title</t>
   </si>
@@ -416,6 +406,48 @@
   </si>
   <si>
     <t>View Pay Stubs</t>
+  </si>
+  <si>
+    <t>1. Run app</t>
+  </si>
+  <si>
+    <t>2. Login as a Manager</t>
+  </si>
+  <si>
+    <t>3.  Click Add employee</t>
+  </si>
+  <si>
+    <t>Created a new employee into Employee ArrayList</t>
+  </si>
+  <si>
+    <t>Add an employee (staff).</t>
+  </si>
+  <si>
+    <t>4 . Enter Employee info assign as staff</t>
+  </si>
+  <si>
+    <t>5. Click Add Employee.</t>
+  </si>
+  <si>
+    <t>Add an employee (manager).</t>
+  </si>
+  <si>
+    <t>4 . Enter Employee info assign as Manager</t>
+  </si>
+  <si>
+    <t>Created a new employee into Employee/Manager ArrayList</t>
+  </si>
+  <si>
+    <t>List all managers</t>
+  </si>
+  <si>
+    <t>3.  Click List employees</t>
+  </si>
+  <si>
+    <t>4 . Click List Managers</t>
+  </si>
+  <si>
+    <t>Display list of current managers</t>
   </si>
 </sst>
 </file>
@@ -645,9 +677,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -685,7 +717,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -791,7 +823,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -933,7 +965,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -943,33 +975,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DBA430-5312-488B-9461-9DA85FDB31DA}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40" style="2" customWidth="1"/>
-    <col min="7" max="7" width="71.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" customWidth="1"/>
-    <col min="10" max="10" width="97.5" customWidth="1"/>
+    <col min="7" max="7" width="71.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="97.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1001,7 +1033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1023,7 +1055,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <f>A4+1</f>
         <v>2</v>
@@ -1046,7 +1078,7 @@
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <f t="shared" ref="A6:A29" si="0">A5+1</f>
         <v>3</v>
@@ -1071,7 +1103,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1096,7 +1128,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1121,7 +1153,7 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1146,7 +1178,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1171,7 +1203,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1196,7 +1228,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1221,7 +1253,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1246,7 +1278,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1269,7 +1301,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1294,7 +1326,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1319,7 +1351,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1344,7 +1376,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1369,7 +1401,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1394,7 +1426,7 @@
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
     </row>
-    <row r="20" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1419,7 +1451,7 @@
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="1:10" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1444,7 +1476,7 @@
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
     </row>
-    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1469,7 +1501,7 @@
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1494,7 +1526,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1517,7 +1549,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1542,7 +1574,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <f>A25+1</f>
         <v>23</v>
@@ -1565,7 +1597,7 @@
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1590,7 +1622,7 @@
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1615,7 +1647,7 @@
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1638,7 +1670,7 @@
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G31" s="2" t="s">
         <v>32</v>
       </c>
@@ -1651,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G32" s="2" t="s">
         <v>33</v>
       </c>
@@ -1664,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="7:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G33" s="2" t="s">
         <v>34</v>
       </c>
@@ -1677,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="7:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G34" s="2" t="s">
         <v>35</v>
       </c>
@@ -1690,7 +1722,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="7:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G35" s="2" t="s">
         <v>36</v>
       </c>
@@ -1703,7 +1735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="7:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G36" s="2" t="s">
         <v>32</v>
       </c>
@@ -1716,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="7:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G37" s="2" t="s">
         <v>33</v>
       </c>
@@ -1729,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="7:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G38" s="2" t="s">
         <v>34</v>
       </c>
@@ -1742,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="7:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G39" s="2" t="s">
         <v>35</v>
       </c>
@@ -1755,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="7:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G40" s="2" t="s">
         <v>36</v>
       </c>
@@ -1781,24 +1813,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="107.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="107.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C1" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
@@ -1806,10 +1838,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -1817,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
@@ -1825,7 +1857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -1833,46 +1865,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>10</v>
       </c>
@@ -1880,7 +1912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
@@ -1888,7 +1920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>5</v>
       </c>
@@ -1896,19 +1928,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>14</v>
       </c>
@@ -1916,19 +1948,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>12</v>
       </c>
@@ -1943,29 +1975,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:C14"/>
+  <dimension ref="B2:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C14"/>
+      <selection activeCell="E26" sqref="A1:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -1973,56 +2008,209 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
+      <c r="C6" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
+      <c r="C11" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F7C54A-CC34-46CC-94FE-A9A160697CD8}">
+  <dimension ref="B1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="C11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/user_stories_ps_team_1.xlsx
+++ b/docs/user_stories_ps_team_1.xlsx
@@ -1,34 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\25su_team1\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonpearson/Desktop/Summer2025/CS 4321/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE919FA1-3C31-4FA1-AAB1-9CE568857526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F4E4239-1CA9-FD4F-A3E9-B3D8DB9E0844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="12" r:id="rId1"/>
     <sheet name="US-1" sheetId="9" r:id="rId2"/>
-    <sheet name="US-2" sheetId="11" r:id="rId3"/>
-    <sheet name="US-4" sheetId="13" r:id="rId4"/>
+    <sheet name="US-2" sheetId="22" r:id="rId3"/>
+    <sheet name="US-3" sheetId="25" r:id="rId4"/>
+    <sheet name="US-4" sheetId="23" r:id="rId5"/>
+    <sheet name="US-5" sheetId="24" r:id="rId6"/>
+    <sheet name="US-6" sheetId="19" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="189">
   <si>
     <t>Title</t>
   </si>
@@ -75,24 +89,6 @@
     <t>Expected Output</t>
   </si>
   <si>
-    <t>Save a list of shapes to a file when there are no shapes in memory.</t>
-  </si>
-  <si>
-    <t>1. Run the system</t>
-  </si>
-  <si>
-    <t>The save should be aborted and a message displayed to the GUI, "No shapes to save"</t>
-  </si>
-  <si>
-    <t>2. Choose: Save Shapes</t>
-  </si>
-  <si>
-    <t>User should not be prompted for the file name</t>
-  </si>
-  <si>
-    <t>This is an example unrelated to your project. Delete the data and provide System tests for US 1 here.</t>
-  </si>
-  <si>
     <t>Manager</t>
   </si>
   <si>
@@ -408,6 +404,69 @@
     <t>View Pay Stubs</t>
   </si>
   <si>
+    <t>Manager1 Lastname Firstname ID</t>
+  </si>
+  <si>
+    <t>Staff1 Lastname Firstname ID</t>
+  </si>
+  <si>
+    <t>Staff2 Lastname Firstname ID</t>
+  </si>
+  <si>
+    <t>Staff3 Lastname Firstname ID</t>
+  </si>
+  <si>
+    <t>1. setHours() test to Thursday to have 4 hours.</t>
+  </si>
+  <si>
+    <t>2.setPTO() test to Tuesday for PTO and PTO balance drops from 40(given amount) to 32</t>
+  </si>
+  <si>
+    <t>3.testPTOOnWeekend() test to Saturday to if you put PTO on Saturday</t>
+  </si>
+  <si>
+    <t>4.testGetNumDaysWorked()  test Mon-Wed hours to see amount of days worked with PTO set on Tuesday</t>
+  </si>
+  <si>
+    <t>1. 4 hours is returned</t>
+  </si>
+  <si>
+    <t>2. PTO is accepted for Tuesday and PTO balance drops by 8</t>
+  </si>
+  <si>
+    <t>3.PTO is not accepted</t>
+  </si>
+  <si>
+    <t>4.Only returns 2 days worked</t>
+  </si>
+  <si>
+    <t>5. testTotalHours() test to the total amount of hours for the week for Monday(4) and Tuesday(3)</t>
+  </si>
+  <si>
+    <t>5.Returns the total amount of hours worked on Mon-Tuesday(7 in total)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.testWeekdayWeekendSplit() test to See how many hours worked on the weekend(4) and weekday(3) </t>
+  </si>
+  <si>
+    <t>6. Returns 4 on the weekend and 4 on the 3 weekday.</t>
+  </si>
+  <si>
+    <t>1.Enter a username("jason") string</t>
+  </si>
+  <si>
+    <t>2.Enter a password("password") string</t>
+  </si>
+  <si>
+    <t>No set username or password, can be creative, as long as it’s a string</t>
+  </si>
+  <si>
+    <t>Successful login and goes to the next screen</t>
+  </si>
+  <si>
+    <t>Add an employee (staff).</t>
+  </si>
+  <si>
     <t>1. Run app</t>
   </si>
   <si>
@@ -417,18 +476,15 @@
     <t>3.  Click Add employee</t>
   </si>
   <si>
+    <t>4 . Enter Employee info assign as staff</t>
+  </si>
+  <si>
+    <t>5. Click Add Employee.</t>
+  </si>
+  <si>
     <t>Created a new employee into Employee ArrayList</t>
   </si>
   <si>
-    <t>Add an employee (staff).</t>
-  </si>
-  <si>
-    <t>4 . Enter Employee info assign as staff</t>
-  </si>
-  <si>
-    <t>5. Click Add Employee.</t>
-  </si>
-  <si>
     <t>Add an employee (manager).</t>
   </si>
   <si>
@@ -448,13 +504,137 @@
   </si>
   <si>
     <t>Display list of current managers</t>
+  </si>
+  <si>
+    <t>Sort all employees sorted by department, lastname, firstname, then ID.</t>
+  </si>
+  <si>
+    <t>1. Add all employees to a List</t>
+  </si>
+  <si>
+    <t>2. Use .sort(Comparator.comparing(List::department).thenComparing(List::LastName)... etc.</t>
+  </si>
+  <si>
+    <t>The List employees sorted:</t>
+  </si>
+  <si>
+    <t>Return a String[] of Sorted Employees</t>
+  </si>
+  <si>
+    <t>1. Sort the employees as described in the previous step</t>
+  </si>
+  <si>
+    <t>2. Create a String array;</t>
+  </si>
+  <si>
+    <t>3. extract each employee into strings of "department, lastname, firstname, ID"</t>
+  </si>
+  <si>
+    <t>4. add all strings to the temp String[] and return it</t>
+  </si>
+  <si>
+    <t>A sorted string Array with each employee's information</t>
+  </si>
+  <si>
+    <t>Employee List</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Add a new staff employee through input fields.</t>
+  </si>
+  <si>
+    <t>1. Run the JavaFX application.
+2. Enter First Name: 'John'
+3. Enter Last Name: 'Smith'
+4. Enter Department: 'IT'
+5. Enter ID: 123
+6. Ensure 'Is Manager' is unchecked.
+7. Click 'Add Employee'.
+8. Click 'Show List'.</t>
+  </si>
+  <si>
+    <t>The employee 'Smith, John - Dept: IT - ID: 123' is displayed in the sorted list.</t>
+  </si>
+  <si>
+    <t>Tests standard staff entry.</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Add a new manager employee through input fields.</t>
+  </si>
+  <si>
+    <t>1. Run the JavaFX application.
+2. Enter First Name: 'Jane'
+3. Enter Last Name: 'Doe'
+4. Enter Department: 'HR'
+5. Enter ID: 456
+6. Check the 'Is Manager' box.
+7. Click 'Add Employee'.
+8. Click 'Show List'.</t>
+  </si>
+  <si>
+    <t>The employee 'Doe, Jane - Dept: HR - ID: 456 [Manager]' is displayed in the sorted list.</t>
+  </si>
+  <si>
+    <t>Tests manager entry and [Manager] label.</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Test sorted order by Last Name, First Name, Department, and ID.</t>
+  </si>
+  <si>
+    <t>1. Add multiple employees with various combinations of names, departments, and IDs.
+2. Click 'Show List'.</t>
+  </si>
+  <si>
+    <t>Employees appear sorted by last name &gt; first name &gt; department &gt; ID.</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Test empty field input error handling.</t>
+  </si>
+  <si>
+    <t>1. Leave First Name blank.
+2. Fill in the other fields.
+3. Click 'Add Employee'.</t>
+  </si>
+  <si>
+    <t>An alert message appears: 'All fields must be filled.'</t>
+  </si>
+  <si>
+    <t>Validates form validation.</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Test invalid ID input.</t>
+  </si>
+  <si>
+    <t>1. Enter non-numeric value in ID field (e.g., 'abc').
+2. Fill in the other fields.
+3. Click 'Add Employee'.</t>
+  </si>
+  <si>
+    <t>An alert message appears: 'Employee ID must be a number.'</t>
+  </si>
+  <si>
+    <t>Validates numeric input validation for ID field.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,8 +678,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,8 +755,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -539,12 +770,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -599,9 +846,32 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{57DBD964-1803-8C40-AE4C-363B4888D97F}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="12">
@@ -677,9 +947,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -717,7 +987,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -823,7 +1093,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -965,7 +1235,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -975,33 +1245,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DBA430-5312-488B-9461-9DA85FDB31DA}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40" style="2" customWidth="1"/>
-    <col min="7" max="7" width="71.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="10" width="97.42578125" customWidth="1"/>
+    <col min="7" max="7" width="71.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" customWidth="1"/>
+    <col min="10" max="10" width="97.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1009,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -1033,646 +1303,646 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <f>A4+1</f>
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <f t="shared" ref="A6:A29" si="0">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
-        <f t="shared" si="0"/>
+        <f>A9+1</f>
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
     </row>
-    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <f>A25+1</f>
         <v>23</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H31">
         <f>COUNTA(Table242[Code])</f>
@@ -1683,9 +1953,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="G32" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H32">
         <f>COUNTIF(Table242[Code],"C")</f>
@@ -1696,9 +1966,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:9" ht="16" x14ac:dyDescent="0.2">
       <c r="G33" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H33">
         <f>COUNTIF(Table242[Code],"~")</f>
@@ -1709,9 +1979,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:9" ht="16" x14ac:dyDescent="0.2">
       <c r="G34" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H34">
         <f>COUNTBLANK(Table242[Code])</f>
@@ -1722,9 +1992,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:9" ht="16" x14ac:dyDescent="0.2">
       <c r="G35" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H35">
         <f>H31+H34</f>
@@ -1735,9 +2005,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:9" ht="16" x14ac:dyDescent="0.2">
       <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H36" s="19">
         <f t="shared" ref="H36:I40" si="1">H31/H$35</f>
@@ -1748,9 +2018,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:9" ht="16" x14ac:dyDescent="0.2">
       <c r="G37" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H37" s="19">
         <f t="shared" si="1"/>
@@ -1761,9 +2031,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:9" ht="16" x14ac:dyDescent="0.2">
       <c r="G38" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H38" s="19">
         <f t="shared" si="1"/>
@@ -1774,9 +2044,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:9" ht="16" x14ac:dyDescent="0.2">
       <c r="G39" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H39" s="19">
         <f t="shared" si="1"/>
@@ -1787,9 +2057,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:9" ht="16" x14ac:dyDescent="0.2">
       <c r="G40" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H40" s="19">
         <f t="shared" si="1"/>
@@ -1814,34 +2084,32 @@
   <dimension ref="B1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="107.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="107.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -1849,124 +2117,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="8"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="C15" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26"/>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28"/>
+      <c r="C28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1974,33 +2233,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C07DB49-133C-4F40-BEA3-ECA48488659B}">
   <dimension ref="B2:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="A1:E26"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -2008,60 +2267,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
       <c r="C7" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
       <c r="C8" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="C9" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="8"/>
       <c r="C10" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>10</v>
       </c>
@@ -2069,55 +2328,55 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
       <c r="C17" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
       <c r="C18" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
       <c r="C19" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="8"/>
       <c r="C20" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
         <v>12</v>
       </c>
@@ -2128,35 +2387,267 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F7C54A-CC34-46CC-94FE-A9A160697CD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863EB2B6-0A78-B047-A81A-0CF9F83D6FBB}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28"/>
+    </row>
+    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="31"/>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A30" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E987CA13-FED0-4B46-BD78-F54FA80A41E4}">
   <dimension ref="B1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -2164,53 +2655,373 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
       <c r="C7" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
       <c r="C8" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="C9" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACBEC20-28AB-F942-8485-B35D4F374E4E}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="B2:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="12.6640625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+    </row>
+    <row r="3" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B4" s="25"/>
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="23"/>
+      <c r="C8" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="23"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="23"/>
+      <c r="C12" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B13" s="23"/>
+      <c r="C13" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B14" s="23"/>
+      <c r="C14" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B15" s="23"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="20"/>
+      <c r="C17" s="24"/>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="23"/>
+      <c r="C21" s="24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="23"/>
+      <c r="C22" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="23"/>
+      <c r="C23" s="24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="24"/>
+    </row>
+    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="23"/>
+      <c r="C25" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+    </row>
+    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+    </row>
+    <row r="28" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+    </row>
+    <row r="29" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99911D14-9A8A-F243-915C-9D12602FDC52}">
+  <dimension ref="B2:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="8"/>
+      <c r="C8" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="8"/>
+      <c r="C10" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="8"/>
+      <c r="C11" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="8"/>
+      <c r="C14" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="4" t="s">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/user_stories_ps_team_1.xlsx
+++ b/docs/user_stories_ps_team_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonpearson/Desktop/Summer2025/CS 4321/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\25su_team1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F4E4239-1CA9-FD4F-A3E9-B3D8DB9E0844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E70A42F-31F4-4439-80DB-ED21DED8A70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="1455" windowWidth="20190" windowHeight="17730" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="12" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="US-4" sheetId="23" r:id="rId5"/>
     <sheet name="US-5" sheetId="24" r:id="rId6"/>
     <sheet name="US-6" sheetId="19" r:id="rId7"/>
+    <sheet name="US-10" sheetId="26" r:id="rId8"/>
+    <sheet name="US-19" sheetId="27" r:id="rId9"/>
+    <sheet name="US-20" sheetId="28" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="208">
   <si>
     <t>Title</t>
   </si>
@@ -628,6 +631,63 @@
   </si>
   <si>
     <t>Validates numeric input validation for ID field.</t>
+  </si>
+  <si>
+    <t>6. Click log hours for employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.Select the employee and log hours </t>
+  </si>
+  <si>
+    <t>8. Back out and click view employee pay stub</t>
+  </si>
+  <si>
+    <t>9.Select employee and click save pay stub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Window should pop up saying that files has been saved and file should have saved to machine. </t>
+  </si>
+  <si>
+    <t>files will be saved in same dir as application</t>
+  </si>
+  <si>
+    <t>6. Should be backed out and now Click edit employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.Select employee </t>
+  </si>
+  <si>
+    <t>Paystub should reflect change in pay.</t>
+  </si>
+  <si>
+    <t>7.Select the employee and edit pay.</t>
+  </si>
+  <si>
+    <t>8. Back out and click list employee</t>
+  </si>
+  <si>
+    <t>7.Select the employee and edit username, name , or last name</t>
+  </si>
+  <si>
+    <t>9.Select list all employees</t>
+  </si>
+  <si>
+    <t>Table should reflect updated employee details.</t>
+  </si>
+  <si>
+    <t>6. Back out and click delete employee</t>
+  </si>
+  <si>
+    <t>7.Select the employee and click ok</t>
+  </si>
+  <si>
+    <t>8. Confirm deleteion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Window should pop up saying that employee has been deleted. </t>
+  </si>
+  <si>
+    <t>will keep archive of deleted employees</t>
   </si>
 </sst>
 </file>
@@ -861,13 +921,13 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1252,26 +1312,26 @@
       <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40" style="2" customWidth="1"/>
-    <col min="7" max="7" width="71.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" customWidth="1"/>
-    <col min="10" max="10" width="97.5" customWidth="1"/>
+    <col min="7" max="7" width="71.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="97.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1303,7 +1363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1325,7 +1385,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <f>A4+1</f>
         <v>2</v>
@@ -1348,7 +1408,7 @@
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <f t="shared" ref="A6:A29" si="0">A5+1</f>
         <v>3</v>
@@ -1373,7 +1433,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1398,7 +1458,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1423,7 +1483,7 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1448,7 +1508,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <f>A9+1</f>
         <v>7</v>
@@ -1473,7 +1533,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1498,7 +1558,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1523,7 +1583,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1548,7 +1608,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1571,7 +1631,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1596,7 +1656,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1621,7 +1681,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1646,7 +1706,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1671,7 +1731,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1696,7 +1756,7 @@
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
     </row>
-    <row r="20" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1721,7 +1781,7 @@
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="1:10" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1746,7 +1806,7 @@
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
     </row>
-    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1771,7 +1831,7 @@
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1796,7 +1856,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1819,7 +1879,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1844,7 +1904,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <f>A25+1</f>
         <v>23</v>
@@ -1867,7 +1927,7 @@
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1892,7 +1952,7 @@
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1917,7 +1977,7 @@
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1940,7 +2000,7 @@
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G31" s="2" t="s">
         <v>26</v>
       </c>
@@ -1953,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G32" s="2" t="s">
         <v>27</v>
       </c>
@@ -1966,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="7:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G33" s="2" t="s">
         <v>28</v>
       </c>
@@ -1979,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="7:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G34" s="2" t="s">
         <v>29</v>
       </c>
@@ -1992,7 +2052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="7:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G35" s="2" t="s">
         <v>30</v>
       </c>
@@ -2005,7 +2065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="7:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G36" s="2" t="s">
         <v>26</v>
       </c>
@@ -2018,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="7:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G37" s="2" t="s">
         <v>27</v>
       </c>
@@ -2031,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="7:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G38" s="2" t="s">
         <v>28</v>
       </c>
@@ -2044,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="7:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G39" s="2" t="s">
         <v>29</v>
       </c>
@@ -2057,7 +2117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="7:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G40" s="2" t="s">
         <v>30</v>
       </c>
@@ -2079,26 +2139,195 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E41D81-324E-4835-83D1-51743F3A5386}">
+  <dimension ref="B2:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28"/>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29"/>
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30"/>
+      <c r="C30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="107.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="107.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
@@ -2106,10 +2335,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -2117,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
@@ -2125,7 +2354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -2133,21 +2362,21 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -2155,23 +2384,23 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
@@ -2179,51 +2408,51 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17"/>
       <c r="C17"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18"/>
       <c r="C18"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19"/>
       <c r="C19"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20"/>
       <c r="C20"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="C21"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="C23"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
     </row>
@@ -2237,18 +2466,18 @@
   <dimension ref="B2:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="C28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="47.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
@@ -2256,10 +2485,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -2267,7 +2496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
@@ -2275,7 +2504,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -2283,31 +2512,31 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
@@ -2315,12 +2544,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>10</v>
       </c>
@@ -2328,7 +2557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
@@ -2336,7 +2565,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
@@ -2344,31 +2573,31 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>14</v>
       </c>
@@ -2376,7 +2605,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>12</v>
       </c>
@@ -2390,223 +2619,223 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863EB2B6-0A78-B047-A81A-0CF9F83D6FBB}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-    </row>
-    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="30"/>
+      <c r="B1" s="31"/>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="128" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="29" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="29" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="29" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="29" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="128" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="29" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="29" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="29" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="29" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="29" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="29" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="29" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="31"/>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="B20" s="29"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="29" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="29" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="29" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="29" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="29" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="29" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="30" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="29" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A30" s="30" t="s">
+    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="29" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="29" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="30" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="29" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2626,17 +2855,17 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.83203125" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
@@ -2644,10 +2873,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -2655,7 +2884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
@@ -2663,7 +2892,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -2671,25 +2900,25 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -2697,7 +2926,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
@@ -2717,9 +2946,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="12.6640625" style="22"/>
+    <col min="1" max="16384" width="12.7109375" style="22"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2734,7 +2963,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="25"/>
       <c r="C4" s="24"/>
     </row>
@@ -2756,7 +2985,7 @@
       </c>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
         <v>5</v>
       </c>
@@ -2764,26 +2993,26 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="23"/>
       <c r="C8" s="25" t="s">
         <v>156</v>
       </c>
       <c r="D8" s="25"/>
     </row>
-    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
     </row>
-    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="23"/>
       <c r="C10" s="24" t="s">
         <v>157</v>
       </c>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>14</v>
       </c>
@@ -2792,33 +3021,33 @@
       </c>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="23"/>
       <c r="C12" s="25" t="s">
         <v>121</v>
       </c>
       <c r="D12" s="25"/>
     </row>
-    <row r="13" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
       <c r="C13" s="25" t="s">
         <v>122</v>
       </c>
       <c r="D13" s="25"/>
     </row>
-    <row r="14" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="23"/>
       <c r="C14" s="26" t="s">
         <v>123</v>
       </c>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="23"/>
       <c r="C15" s="26"/>
       <c r="D15" s="25"/>
     </row>
-    <row r="16" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
         <v>12</v>
       </c>
@@ -2911,18 +3140,18 @@
   <dimension ref="B2:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
@@ -2930,10 +3159,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -2941,7 +3170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
@@ -2949,7 +3178,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -2957,39 +3186,39 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
@@ -2997,31 +3226,419 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
         <v>135</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A11BA83-112C-487B-B56E-6380227589D6}">
+  <dimension ref="B2:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28"/>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29"/>
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30"/>
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31"/>
+      <c r="C31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF366E3-A8CB-4E94-92C1-7678D79B06B9}">
+  <dimension ref="B2:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="C21" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32"/>
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33"/>
+      <c r="C33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/user_stories_ps_team_1.xlsx
+++ b/docs/user_stories_ps_team_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\25su_team1\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonpearson/Desktop/Final stretch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E70A42F-31F4-4439-80DB-ED21DED8A70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3FDE1C-2F4A-AB4C-885D-1A3F7CF76387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1455" windowWidth="20190" windowHeight="17730" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="12" r:id="rId1"/>
@@ -20,9 +20,22 @@
     <sheet name="US-4" sheetId="23" r:id="rId5"/>
     <sheet name="US-5" sheetId="24" r:id="rId6"/>
     <sheet name="US-6" sheetId="19" r:id="rId7"/>
-    <sheet name="US-10" sheetId="26" r:id="rId8"/>
-    <sheet name="US-19" sheetId="27" r:id="rId9"/>
-    <sheet name="US-20" sheetId="28" r:id="rId10"/>
+    <sheet name="US-7" sheetId="26" r:id="rId8"/>
+    <sheet name="US-8" sheetId="35" r:id="rId9"/>
+    <sheet name="US-9" sheetId="32" r:id="rId10"/>
+    <sheet name="US-10" sheetId="42" r:id="rId11"/>
+    <sheet name="US-11" sheetId="39" r:id="rId12"/>
+    <sheet name="US-12" sheetId="36" r:id="rId13"/>
+    <sheet name="US-13" sheetId="37" r:id="rId14"/>
+    <sheet name="US-14" sheetId="38" r:id="rId15"/>
+    <sheet name="US-15" sheetId="33" r:id="rId16"/>
+    <sheet name="US-16" sheetId="34" r:id="rId17"/>
+    <sheet name="US-19" sheetId="41" r:id="rId18"/>
+    <sheet name="US-20" sheetId="40" r:id="rId19"/>
+    <sheet name="US-23" sheetId="27" r:id="rId20"/>
+    <sheet name="US-24" sheetId="29" r:id="rId21"/>
+    <sheet name="US-25" sheetId="30" r:id="rId22"/>
+    <sheet name="US-26" sheetId="31" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="351">
   <si>
     <t>Title</t>
   </si>
@@ -633,68 +646,497 @@
     <t>Validates numeric input validation for ID field.</t>
   </si>
   <si>
+    <t>1Add 4 hours for Mon-Sun</t>
+  </si>
+  <si>
+    <t>2.Click on Weekly Summary button</t>
+  </si>
+  <si>
+    <t>A screen pops up showing the employee name, days of the week with 4 hours next to it.</t>
+  </si>
+  <si>
+    <t>1. Add 4 hours for Mon-Wed, give PTO for Thurday and Friday and 0 hours for Sat-Sn\un</t>
+  </si>
+  <si>
+    <t>A screen pops up showing the employee name, days of the week with 4 hours next to Mon-Wed, Thursday and Friday with 8 hours of PTO, and 0 hours of PTO</t>
+  </si>
+  <si>
+    <t>1.Enter a username("chris") string</t>
+  </si>
+  <si>
+    <t>2.Enter a password("password1234") string</t>
+  </si>
+  <si>
+    <t>Add Hours(Employee)</t>
+  </si>
+  <si>
+    <t>1. setHours() test to Monday to have 6 hours.</t>
+  </si>
+  <si>
+    <t>1. 6 hours is returned</t>
+  </si>
+  <si>
+    <t>View My Pay Stub(Employee)</t>
+  </si>
+  <si>
+    <t>1.After entering hours for the week click button "view pay stub"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A paystub for an employee should appear showing hours worked, total weekdayhours and weekend hours, gross pay, tax withholdings, net pay and remaing PTO </t>
+  </si>
+  <si>
+    <t>1.Click "change password button"</t>
+  </si>
+  <si>
+    <t>2. Enter current password and then enter a new passowrd and conforim it</t>
+  </si>
+  <si>
+    <t>3. Logout and enter the employee login with new password and same username.</t>
+  </si>
+  <si>
+    <t>Get Pay</t>
+  </si>
+  <si>
+    <t>1. Input employee's Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Calculate staff pay (Payrate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* week hours (up to 40) + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payrate * (weekend hours + </t>
+  </si>
+  <si>
+    <t>overtime hours) * 1.5)</t>
+  </si>
+  <si>
+    <t>3. Calculate manager pay (</t>
+  </si>
+  <si>
+    <t>Payrate * 40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gross pay for both staff and </t>
+  </si>
+  <si>
+    <t>managers</t>
+  </si>
+  <si>
+    <t>Get Pay Stub</t>
+  </si>
+  <si>
+    <t>1. Display employee information</t>
+  </si>
+  <si>
+    <t>2. Display employee hours</t>
+  </si>
+  <si>
+    <t>worked each day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. use Get Pay to calculate </t>
+  </si>
+  <si>
+    <t>the gross pay</t>
+  </si>
+  <si>
+    <t>4. Calculate tax withholdings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Subtract tax withholdings </t>
+  </si>
+  <si>
+    <t>from gross pay for net pay</t>
+  </si>
+  <si>
+    <t>Employee's Pay Stub</t>
+  </si>
+  <si>
+    <t>1. Use buffered reader</t>
+  </si>
+  <si>
+    <t>to read the saved file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Copy the file into an </t>
+  </si>
+  <si>
+    <t>arraylist</t>
+  </si>
+  <si>
+    <t>3. Parse the copied data and</t>
+  </si>
+  <si>
+    <t>add it the program on launch</t>
+  </si>
+  <si>
+    <t>All saved information should</t>
+  </si>
+  <si>
+    <t>already be in the program</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1. Input the day and hours</t>
+  </si>
+  <si>
+    <t>worked that day (and your</t>
+  </si>
+  <si>
+    <t>manager ID) that you want to</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. overwrite the previous </t>
+  </si>
+  <si>
+    <t>values with the new values</t>
+  </si>
+  <si>
+    <t>3. Record the change with</t>
+  </si>
+  <si>
+    <t>your manager ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A record of the hours being </t>
+  </si>
+  <si>
+    <t>changed</t>
+  </si>
+  <si>
+    <t>Save all records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Use printwriter to save the </t>
+  </si>
+  <si>
+    <t>information on a file</t>
+  </si>
+  <si>
+    <t>A file with records on it</t>
+  </si>
+  <si>
+    <t>Restore records</t>
+  </si>
+  <si>
+    <t>1. Use buffered reader to</t>
+  </si>
+  <si>
+    <t>read the saved file of records</t>
+  </si>
+  <si>
+    <t>Test Case #</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Steps to Execute</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Display hours for a staff employee</t>
+  </si>
+  <si>
+    <t>Preload employee: Jason Pearson, Department: IT, ID: 1001, Hours: 40. Launch application.</t>
+  </si>
+  <si>
+    <t>Displays: Pearson, Jason (IT) - ID: 1001 - Total Hours: 40.00</t>
+  </si>
+  <si>
+    <t>Display hours for a manager</t>
+  </si>
+  <si>
+    <t>Preload employee: Chris Ramos, Department: HR, ID: 1002, Hours: 35.5. Launch application.</t>
+  </si>
+  <si>
+    <t>Displays: Ramos, Chris (HR) - ID: 1002 - Total Hours: 35.50</t>
+  </si>
+  <si>
+    <t>Verify alphabetical sorting of employees</t>
+  </si>
+  <si>
+    <t>Preload employees: Christian Misner (Sales), Bryce Gunter (Finance), Chris Ramos (IT). Launch application.</t>
+  </si>
+  <si>
+    <t>Displays list sorted by Last Name, First Name, Department, ID</t>
+  </si>
+  <si>
+    <t>Handle scenario with no employee data</t>
+  </si>
+  <si>
+    <t>Do not preload any employee records. Launch application.</t>
+  </si>
+  <si>
+    <t>Displays: No employee data available.</t>
+  </si>
+  <si>
+    <t>Test ID</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Preconditions</t>
+  </si>
+  <si>
+    <t>Input Data</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Actual Output</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>US12-UT1</t>
+  </si>
+  <si>
+    <t>Archive current week's hours for multiple employees</t>
+  </si>
+  <si>
+    <t>Employees have logged regular and PTO hours</t>
+  </si>
+  <si>
+    <t>Employee list with weekly data</t>
+  </si>
+  <si>
+    <t>Click 'Start New Week' button</t>
+  </si>
+  <si>
+    <t>A file is saved with data; hours reset in UI and backend</t>
+  </si>
+  <si>
+    <t>US12-UT2</t>
+  </si>
+  <si>
+    <t>Start a new week with no logged data</t>
+  </si>
+  <si>
+    <t>Employees have not logged any hours</t>
+  </si>
+  <si>
+    <t>Empty hour data for employees</t>
+  </si>
+  <si>
+    <t>System handles it cleanly with no errors; no file saved</t>
+  </si>
+  <si>
+    <t>US12-UT3</t>
+  </si>
+  <si>
+    <t>Verify file format and name</t>
+  </si>
+  <si>
+    <t>New week started with logs</t>
+  </si>
+  <si>
+    <t>Generated file name</t>
+  </si>
+  <si>
+    <t>Inspect file name and extension</t>
+  </si>
+  <si>
+    <t>File ends with .txt and includes date</t>
+  </si>
+  <si>
+    <t>US13-UT1</t>
+  </si>
+  <si>
+    <t>View previously archived data file</t>
+  </si>
+  <si>
+    <t>At least one archive file exists in directory</t>
+  </si>
+  <si>
+    <t>Valid .txt archive file</t>
+  </si>
+  <si>
+    <t>Click 'View Archived Data' &gt; choose file</t>
+  </si>
+  <si>
+    <t>Data shown in a new alert dialog box</t>
+  </si>
+  <si>
+    <t>US13-UT2</t>
+  </si>
+  <si>
+    <t>Attempt to open an unsupported file type</t>
+  </si>
+  <si>
+    <t>User has selected a non-.txt file</t>
+  </si>
+  <si>
+    <t>Invalid file type (e.g., .pdf)</t>
+  </si>
+  <si>
+    <t>Click 'View Archived Data' &gt; choose wrong file</t>
+  </si>
+  <si>
+    <t>Error alert shown explaining invalid format</t>
+  </si>
+  <si>
+    <t>US13-UT3</t>
+  </si>
+  <si>
+    <t>Cancel archive file selection</t>
+  </si>
+  <si>
+    <t>Dialog opened to select file</t>
+  </si>
+  <si>
+    <t>User clicks cancel</t>
+  </si>
+  <si>
+    <t>Click cancel in FileChooser dialog</t>
+  </si>
+  <si>
+    <t>No error or crash, returns to UI</t>
+  </si>
+  <si>
+    <t>US14-UT1</t>
+  </si>
+  <si>
+    <t>Save system state to .txt file</t>
+  </si>
+  <si>
+    <t>Employees have valid names and logged data</t>
+  </si>
+  <si>
+    <t>List of employees with hours</t>
+  </si>
+  <si>
+    <t>Click 'Save System State' button</t>
+  </si>
+  <si>
+    <t>SystemState.txt is created in project root</t>
+  </si>
+  <si>
+    <t>US14-UT2</t>
+  </si>
+  <si>
+    <t>Handle file saving error gracefully</t>
+  </si>
+  <si>
+    <t>Simulated I/O failure (e.g., read-only directory)</t>
+  </si>
+  <si>
+    <t>Valid employee list but saving restricted</t>
+  </si>
+  <si>
+    <t>Click 'Save System State'</t>
+  </si>
+  <si>
+    <t>IOException caught; error shown in console</t>
+  </si>
+  <si>
+    <t>US14-UT3</t>
+  </si>
+  <si>
+    <t>Verify saved data includes PTO and hours</t>
+  </si>
+  <si>
+    <t>Employee has PTO and worked hours</t>
+  </si>
+  <si>
+    <t>Review saved file contents</t>
+  </si>
+  <si>
+    <t>Open saved file and check structure</t>
+  </si>
+  <si>
+    <t>Each employee has PTO and daily hour data</t>
+  </si>
+  <si>
+    <t>1.Create a csv text file</t>
+  </si>
+  <si>
+    <t>2. Enter the ID of the employee's hours</t>
+  </si>
+  <si>
+    <t>3.Enter the day</t>
+  </si>
+  <si>
+    <t>4.Hours and if PTO is true or not but the hours have to be 8 if PTO is being used</t>
+  </si>
+  <si>
+    <t>File should be accpted and the employee should have the relfected hours.</t>
+  </si>
+  <si>
+    <t>6. Back out and click delete employee</t>
+  </si>
+  <si>
+    <t>7.Select the employee and click ok</t>
+  </si>
+  <si>
+    <t>8. Confirm deleteion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Window should pop up saying that employee has been deleted. </t>
+  </si>
+  <si>
+    <t>will keep archive of deleted employees</t>
+  </si>
+  <si>
+    <t>6. Should be backed out and now Click edit employee</t>
+  </si>
+  <si>
+    <t>7.Select the employee and edit pay.</t>
+  </si>
+  <si>
+    <t>8. Back out and click view employee pay stub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.Select employee </t>
+  </si>
+  <si>
+    <t>Paystub should reflect change in pay.</t>
+  </si>
+  <si>
+    <t>files will be saved in same dir as application</t>
+  </si>
+  <si>
+    <t>7.Select the employee and edit username, name , or last name</t>
+  </si>
+  <si>
+    <t>8. Back out and click list employee</t>
+  </si>
+  <si>
+    <t>9.Select list all employees</t>
+  </si>
+  <si>
+    <t>Table should reflect updated employee details.</t>
+  </si>
+  <si>
     <t>6. Click log hours for employee</t>
   </si>
   <si>
     <t xml:space="preserve">7.Select the employee and log hours </t>
   </si>
   <si>
-    <t>8. Back out and click view employee pay stub</t>
-  </si>
-  <si>
     <t>9.Select employee and click save pay stub</t>
   </si>
   <si>
     <t xml:space="preserve">Window should pop up saying that files has been saved and file should have saved to machine. </t>
-  </si>
-  <si>
-    <t>files will be saved in same dir as application</t>
-  </si>
-  <si>
-    <t>6. Should be backed out and now Click edit employee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.Select employee </t>
-  </si>
-  <si>
-    <t>Paystub should reflect change in pay.</t>
-  </si>
-  <si>
-    <t>7.Select the employee and edit pay.</t>
-  </si>
-  <si>
-    <t>8. Back out and click list employee</t>
-  </si>
-  <si>
-    <t>7.Select the employee and edit username, name , or last name</t>
-  </si>
-  <si>
-    <t>9.Select list all employees</t>
-  </si>
-  <si>
-    <t>Table should reflect updated employee details.</t>
-  </si>
-  <si>
-    <t>6. Back out and click delete employee</t>
-  </si>
-  <si>
-    <t>7.Select the employee and click ok</t>
-  </si>
-  <si>
-    <t>8. Confirm deleteion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Window should pop up saying that employee has been deleted. </t>
-  </si>
-  <si>
-    <t>will keep archive of deleted employees</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,8 +1225,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -821,8 +1276,14 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -845,13 +1306,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -928,6 +1411,24 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1305,33 +1806,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DBA430-5312-488B-9461-9DA85FDB31DA}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40" style="2" customWidth="1"/>
-    <col min="7" max="7" width="71.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="10" width="97.42578125" customWidth="1"/>
+    <col min="7" max="7" width="71.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" customWidth="1"/>
+    <col min="10" max="10" width="97.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1363,7 +1864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1381,11 +1882,15 @@
         <v>18</v>
       </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1</v>
+      </c>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <f>A4+1</f>
         <v>2</v>
@@ -1404,11 +1909,15 @@
         <v>31</v>
       </c>
       <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="12">
+        <v>2</v>
+      </c>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <f t="shared" ref="A6:A29" si="0">A5+1</f>
         <v>3</v>
@@ -1429,11 +1938,15 @@
       <c r="G6" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1454,11 +1967,15 @@
       <c r="G7" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="H7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1</v>
+      </c>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1479,11 +1996,15 @@
       <c r="G8" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="H8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="12">
+        <v>2</v>
+      </c>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1504,11 +2025,15 @@
       <c r="G9" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="H9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1</v>
+      </c>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <f>A9+1</f>
         <v>7</v>
@@ -1529,11 +2054,15 @@
       <c r="G10" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="12">
+        <v>2</v>
+      </c>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1554,11 +2083,15 @@
       <c r="G11" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="H11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="12">
+        <v>2</v>
+      </c>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1579,11 +2112,15 @@
       <c r="G12" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="H12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="12">
+        <v>2</v>
+      </c>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1604,11 +2141,15 @@
       <c r="G13" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="H13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1</v>
+      </c>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1627,11 +2168,15 @@
         <v>79</v>
       </c>
       <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="H14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1</v>
+      </c>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1652,11 +2197,15 @@
       <c r="G15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="H15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="12">
+        <v>3</v>
+      </c>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1677,11 +2226,15 @@
       <c r="G16" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="H16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="12">
+        <v>3</v>
+      </c>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1702,11 +2255,15 @@
       <c r="G17" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="H17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="12">
+        <v>3</v>
+      </c>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1727,11 +2284,15 @@
       <c r="G18" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="H18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="12">
+        <v>1</v>
+      </c>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1752,11 +2313,15 @@
       <c r="G19" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="H19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="14">
+        <v>3</v>
+      </c>
       <c r="J19" s="14"/>
     </row>
-    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1777,11 +2342,13 @@
       <c r="G20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="14"/>
+      <c r="H20" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1802,11 +2369,13 @@
       <c r="G21" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1827,11 +2396,15 @@
       <c r="G22" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="H22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="14">
+        <v>2</v>
+      </c>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1852,11 +2425,15 @@
       <c r="G23" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="H23" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="14">
+        <v>1</v>
+      </c>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1875,11 +2452,13 @@
         <v>62</v>
       </c>
       <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="H24" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1900,11 +2479,13 @@
       <c r="G25" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H25" s="14"/>
+      <c r="H25" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <f>A25+1</f>
         <v>23</v>
@@ -1923,11 +2504,15 @@
         <v>74</v>
       </c>
       <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="H26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="17">
+        <v>1</v>
+      </c>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1948,11 +2533,15 @@
       <c r="G27" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="H27" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="17">
+        <v>1</v>
+      </c>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1973,11 +2562,15 @@
       <c r="G28" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
+      <c r="H28" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="17">
+        <v>1</v>
+      </c>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1996,37 +2589,41 @@
         <v>73</v>
       </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="H29" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="17">
+        <v>1</v>
+      </c>
       <c r="J29" s="17"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="G31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H31">
         <f>COUNTA(Table242[Code])</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I31">
         <f>COUNTA(Table242[Code])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="G32" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H32">
         <f>COUNTIF(Table242[Code],"C")</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I32">
         <f>COUNTIF(Table242[Code],"C")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" ht="16" x14ac:dyDescent="0.2">
       <c r="G33" s="2" t="s">
         <v>28</v>
       </c>
@@ -2039,20 +2636,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:9" ht="16" x14ac:dyDescent="0.2">
       <c r="G34" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H34">
         <f>COUNTBLANK(Table242[Code])</f>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <f>COUNTBLANK(Table242[Code])</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" ht="16" x14ac:dyDescent="0.2">
       <c r="G35" s="2" t="s">
         <v>30</v>
       </c>
@@ -2065,33 +2662,33 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:9" ht="16" x14ac:dyDescent="0.2">
       <c r="G36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H36" s="19">
         <f t="shared" ref="H36:I40" si="1">H31/H$35</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9" ht="16" x14ac:dyDescent="0.2">
       <c r="G37" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H37" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="I37" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9" ht="16" x14ac:dyDescent="0.2">
       <c r="G38" s="2" t="s">
         <v>28</v>
       </c>
@@ -2104,20 +2701,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:9" ht="16" x14ac:dyDescent="0.2">
       <c r="G39" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H39" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9" ht="16" x14ac:dyDescent="0.2">
       <c r="G40" s="2" t="s">
         <v>30</v>
       </c>
@@ -2140,32 +2737,33 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E41D81-324E-4835-83D1-51743F3A5386}">
-  <dimension ref="B2:C30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B686B24-DF06-0143-BEE1-675D241A0F14}">
+  <dimension ref="B2:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -2173,133 +2771,1582 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="8"/>
+      <c r="C8" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="8"/>
+      <c r="C10" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" s="8"/>
+      <c r="C11" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="8"/>
+      <c r="C12" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="8"/>
+      <c r="C14" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="8"/>
+      <c r="C20" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="8"/>
+      <c r="C21" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="8"/>
+      <c r="C22" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="8"/>
+      <c r="C23" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="8"/>
+      <c r="C24" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="8"/>
+      <c r="C25" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="8"/>
+      <c r="C26" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23495975-223E-4345-BD60-BEE9C5D7241B}">
+  <dimension ref="B2:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
       <c r="C7" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
       <c r="C8" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="C9" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="8"/>
       <c r="C10" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
       <c r="C11" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
       <c r="C12" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="8"/>
       <c r="C13" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14" s="8"/>
+      <c r="C14" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26"/>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28"/>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29"/>
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30"/>
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31"/>
+      <c r="C31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E32E94F-4E4F-8647-A809-8390105FBA2C}">
+  <dimension ref="B1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="107.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="8"/>
+      <c r="C8" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="8"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="8"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26"/>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28"/>
+      <c r="C28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C705783E-A183-9E4B-B29D-D0ECA84E020C}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="61" customWidth="1"/>
+    <col min="3" max="3" width="53" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="6" width="66" customWidth="1"/>
+    <col min="7" max="8" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59599D22-3DDB-064C-A9BB-6CCABCBAC812}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="3" max="3" width="55" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="56" customWidth="1"/>
+    <col min="6" max="6" width="53" customWidth="1"/>
+    <col min="7" max="8" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D12079-1916-D340-AA0A-E77AF2EE646D}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="3" max="3" width="59" customWidth="1"/>
+    <col min="4" max="4" width="51" customWidth="1"/>
+    <col min="5" max="5" width="45" customWidth="1"/>
+    <col min="6" max="6" width="52" customWidth="1"/>
+    <col min="7" max="8" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F563C8FA-2AD0-AB46-87A7-99A68A850A55}">
+  <dimension ref="B2:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="8"/>
+      <c r="C8" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="8"/>
+      <c r="C10" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" s="8"/>
+      <c r="C11" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="8"/>
+      <c r="C13" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="35"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="35"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="35"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="35"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="35"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="35"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="35"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="35"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="35"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="35"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="35"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F2B7C9-47D9-8348-989D-B2A83E808F45}">
+  <dimension ref="B2:C35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="8"/>
+      <c r="C8" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="8"/>
+      <c r="C10" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" s="8"/>
+      <c r="C11" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="8"/>
+      <c r="C12" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="8"/>
+      <c r="C13" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="8"/>
+      <c r="C15" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="8"/>
+      <c r="C21" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B28" s="8"/>
+      <c r="C28" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B29" s="8"/>
+      <c r="C29" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B30" s="8"/>
+      <c r="C30" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B31" s="8"/>
+      <c r="C31" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B32" s="8"/>
+      <c r="C32" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="8"/>
+      <c r="C34" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D30572-4274-F04E-9D08-D2D5F02BB80B}">
+  <dimension ref="B2:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="8"/>
+      <c r="C8" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="8"/>
+      <c r="C10" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" s="8"/>
+      <c r="C11" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="8"/>
+      <c r="C12" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B13" s="8"/>
+      <c r="C13" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14" s="8"/>
+      <c r="C14" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B21" s="8"/>
+      <c r="C21" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B22" s="8"/>
+      <c r="C22" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B23" s="8"/>
+      <c r="C23" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B24" s="8"/>
+      <c r="C24" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B25" s="8"/>
+      <c r="C25" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B26" s="8"/>
+      <c r="C26" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B27" s="8"/>
+      <c r="C27" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B28" s="8"/>
+      <c r="C28" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32"/>
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33"/>
+      <c r="C33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4256196-19F7-6841-A39E-A3C9B459D136}">
+  <dimension ref="B2:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="8"/>
+      <c r="C8" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="8"/>
+      <c r="C10" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" s="8"/>
+      <c r="C11" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="8"/>
+      <c r="C12" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B13" s="8"/>
+      <c r="C13" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="C17"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="C19"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="C20"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21"/>
       <c r="C21"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23"/>
       <c r="C23"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="C26"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27"/>
       <c r="C27"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="C28"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="C29"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="C30"/>
     </row>
@@ -2313,21 +4360,21 @@
   <dimension ref="B1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="107.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="107.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="19" x14ac:dyDescent="0.2">
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
@@ -2335,10 +4382,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -2346,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
@@ -2354,7 +4401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -2362,21 +4409,21 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
       <c r="C7" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -2384,23 +4431,23 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="8"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
@@ -2408,51 +4455,626 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="C17"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="C19"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="C20"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21"/>
       <c r="C21"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23"/>
       <c r="C23"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="C26"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27"/>
       <c r="C27"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28"/>
+      <c r="C28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF6070A-D5F9-D140-98B7-79AD03ABA355}">
+  <dimension ref="B1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="107.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="8"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="8"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="8"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26"/>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28"/>
+      <c r="C28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4026ACB7-0613-1F4D-B213-CE0A2B45B8E1}">
+  <dimension ref="B2:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="8"/>
+      <c r="C8" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="8"/>
+      <c r="C10" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="8"/>
+      <c r="C11" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="8"/>
+      <c r="C14" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D16D01-B9C7-B048-8C0B-FEC119C85DC0}">
+  <dimension ref="B1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="107.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="8"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="8"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="8"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26"/>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28"/>
+      <c r="C28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB04439B-7674-9541-B0D6-C401B6E1C120}">
+  <dimension ref="B1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="107.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="8"/>
+      <c r="C8" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="8"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="8"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26"/>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="C28"/>
     </row>
@@ -2466,18 +5088,18 @@
   <dimension ref="B2:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="A1:XFD1048576"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
@@ -2485,10 +5107,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -2496,7 +5118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
@@ -2504,7 +5126,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -2512,31 +5134,31 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
       <c r="C7" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
       <c r="C8" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="C9" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="8"/>
       <c r="C10" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
@@ -2544,12 +5166,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>10</v>
       </c>
@@ -2557,7 +5179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
@@ -2565,7 +5187,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
@@ -2573,31 +5195,31 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
       <c r="C17" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
       <c r="C18" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
       <c r="C19" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="8"/>
       <c r="C20" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
         <v>14</v>
       </c>
@@ -2605,7 +5227,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
         <v>12</v>
       </c>
@@ -2619,21 +5241,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863EB2B6-0A78-B047-A81A-0CF9F83D6FBB}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
       <c r="B1" s="31"/>
     </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>13</v>
       </c>
@@ -2641,7 +5263,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>10</v>
       </c>
@@ -2649,7 +5271,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>11</v>
       </c>
@@ -2657,7 +5279,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
@@ -2665,7 +5287,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>14</v>
       </c>
@@ -2673,7 +5295,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>12</v>
       </c>
@@ -2681,7 +5303,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>10</v>
       </c>
@@ -2689,7 +5311,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>11</v>
       </c>
@@ -2697,7 +5319,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>5</v>
       </c>
@@ -2705,7 +5327,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>14</v>
       </c>
@@ -2713,7 +5335,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>12</v>
       </c>
@@ -2721,7 +5343,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>10</v>
       </c>
@@ -2729,7 +5351,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
         <v>11</v>
       </c>
@@ -2737,7 +5359,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
         <v>5</v>
       </c>
@@ -2745,7 +5367,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>14</v>
       </c>
@@ -2753,13 +5375,13 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="29"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
         <v>10</v>
       </c>
@@ -2767,7 +5389,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
         <v>11</v>
       </c>
@@ -2775,7 +5397,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>5</v>
       </c>
@@ -2783,7 +5405,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
         <v>14</v>
       </c>
@@ -2791,7 +5413,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
         <v>12</v>
       </c>
@@ -2799,7 +5421,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
         <v>10</v>
       </c>
@@ -2807,7 +5429,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
         <v>11</v>
       </c>
@@ -2815,7 +5437,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
         <v>5</v>
       </c>
@@ -2823,7 +5445,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
         <v>14</v>
       </c>
@@ -2831,7 +5453,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
         <v>12</v>
       </c>
@@ -2855,17 +5477,17 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
@@ -2873,10 +5495,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -2884,7 +5506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
@@ -2892,7 +5514,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -2900,25 +5522,25 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
       <c r="C7" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
       <c r="C8" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="C9" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -2926,7 +5548,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
@@ -2946,9 +5568,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="12.7109375" style="22"/>
+    <col min="1" max="16384" width="12.6640625" style="22"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2963,7 +5585,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
       <c r="C4" s="24"/>
     </row>
@@ -2985,7 +5607,7 @@
       </c>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="23" t="s">
         <v>5</v>
       </c>
@@ -2993,26 +5615,26 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="23"/>
       <c r="C8" s="25" t="s">
         <v>156</v>
       </c>
       <c r="D8" s="25"/>
     </row>
-    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="23"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
     </row>
-    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="23"/>
       <c r="C10" s="24" t="s">
         <v>157</v>
       </c>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="23" t="s">
         <v>14</v>
       </c>
@@ -3021,33 +5643,33 @@
       </c>
       <c r="D11" s="25"/>
     </row>
-    <row r="12" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="23"/>
       <c r="C12" s="25" t="s">
         <v>121</v>
       </c>
       <c r="D12" s="25"/>
     </row>
-    <row r="13" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B13" s="23"/>
       <c r="C13" s="25" t="s">
         <v>122</v>
       </c>
       <c r="D13" s="25"/>
     </row>
-    <row r="14" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="23"/>
       <c r="C14" s="26" t="s">
         <v>123</v>
       </c>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="23"/>
       <c r="C15" s="26"/>
       <c r="D15" s="25"/>
     </row>
-    <row r="16" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B16" s="23" t="s">
         <v>12</v>
       </c>
@@ -3140,18 +5762,18 @@
   <dimension ref="B2:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
@@ -3159,10 +5781,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -3170,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="64" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
@@ -3178,7 +5800,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -3186,39 +5808,39 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="48" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
       <c r="C7" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
       <c r="C8" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="8"/>
       <c r="C10" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
       <c r="C11" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
@@ -3226,28 +5848,28 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
       <c r="C14" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C15" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C16" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="4" t="s">
         <v>135</v>
       </c>
@@ -3258,32 +5880,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A11BA83-112C-487B-B56E-6380227589D6}">
-  <dimension ref="B2:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE9ADAD-870E-0641-9B76-3334C4EA69F5}">
+  <dimension ref="B1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="107.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -3291,141 +5917,153 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
       <c r="C7" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
-      <c r="C8" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
-      <c r="C9" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
-      <c r="C11" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
-      <c r="C12" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="8"/>
-      <c r="C13" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
-      <c r="C14" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21"/>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22"/>
-      <c r="C22"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23"/>
-      <c r="C23"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24"/>
-      <c r="C24"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25"/>
-      <c r="C25"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26"/>
-      <c r="C26"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27"/>
-      <c r="C27"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28"/>
-      <c r="C28"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29"/>
-      <c r="C29"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30"/>
-      <c r="C30"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31"/>
-      <c r="C31"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B25" s="8"/>
+      <c r="C25" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="8"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="8"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="8"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="8"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="8"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="8"/>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3433,212 +6071,89 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF366E3-A8CB-4E94-92C1-7678D79B06B9}">
-  <dimension ref="B2:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E8609D-6644-AC4B-8E2F-32A8E50C9A99}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
+    <col min="3" max="4" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B2" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32"/>
-      <c r="C32"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33"/>
-      <c r="C33"/>
+      <c r="B3" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>266</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
